--- a/src/main/files/ChatTest.xlsx
+++ b/src/main/files/ChatTest.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SalimAlRawas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SalimAlRawas\IdeaProjects\untitled3\src\main\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48F6B2C-F399-41A9-B3D0-665AAF808027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B6C444-6CDF-4140-8B77-47A00DF5753A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38295" yWindow="4440" windowWidth="19125" windowHeight="11145" xr2:uid="{EB2A8A2B-655F-4667-A06D-52489B164BDA}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EB2A8A2B-655F-4667-A06D-52489B164BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Bau" sheetId="1" r:id="rId1"/>
+    <sheet name="Canvas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="125">
   <si>
     <t>Question</t>
   </si>
@@ -180,13 +181,244 @@
   </si>
   <si>
     <t>How can BAU help me find a job?</t>
+  </si>
+  <si>
+    <t>How do I reset my password?</t>
+  </si>
+  <si>
+    <t>If you set up your own Canvas account, go to "Login" and click on the "Forgot Password?</t>
+  </si>
+  <si>
+    <t>Enter the login information associated with your Canvas account and click the "Request Password" button.</t>
+  </si>
+  <si>
+    <t>Once you’ve reset your password</t>
+  </si>
+  <si>
+    <t>How do I find my school login?</t>
+  </si>
+  <si>
+    <t>you'll log in either from your institution's web page or by using its direct Canvas url</t>
+  </si>
+  <si>
+    <t>Find step-by-step guidance here(opens in a new tab)</t>
+  </si>
+  <si>
+    <t>ou must have an account to log in to Canvas</t>
+  </si>
+  <si>
+    <t>As a parent, how do I get an account and log in?</t>
+  </si>
+  <si>
+    <t>Observers can link their Canvas account to their student's account so they can see assignment dues dates</t>
+  </si>
+  <si>
+    <t> you'll need the Canvas url associated with the institution where your student is enrolled</t>
+  </si>
+  <si>
+    <t> If you already have an account from your student's institution, log in to Canvas using the credentials given to you</t>
+  </si>
+  <si>
+    <t>Where do I access parent resources?</t>
+  </si>
+  <si>
+    <t>for Canvas, with helpful links, a forum to ask questions, and a blog</t>
+  </si>
+  <si>
+    <t>An educator and community coach has also pulled together</t>
+  </si>
+  <si>
+    <t>best practices for adding and organizing additional students</t>
+  </si>
+  <si>
+    <t>How do I get a pairing code?</t>
+  </si>
+  <si>
+    <t>you'll need to enter a student-specific pairing code</t>
+  </si>
+  <si>
+    <t>Students can generate pairing codes from their User Settings</t>
+  </si>
+  <si>
+    <t>Depending on institution permissions, admins and instructors may also be able to generate pairing codes.</t>
+  </si>
+  <si>
+    <t>My pairing code is invalid. What should I do?</t>
+  </si>
+  <si>
+    <t>If the pairing code has been used by another observer (parent), you'll need a new code.</t>
+  </si>
+  <si>
+    <t>If the pairing code was generated more than seven days ago, you'll need a new code.</t>
+  </si>
+  <si>
+    <t>The pairing code needs to be entered exactly as it displays (they are case sensitive), without spaces.</t>
+  </si>
+  <si>
+    <t>What can I do with a Free Account?</t>
+  </si>
+  <si>
+    <t>As an Instructor, you can create courses, add students</t>
+  </si>
+  <si>
+    <t>As a Student, you can access your coursework</t>
+  </si>
+  <si>
+    <t>Parents can be added as an observer</t>
+  </si>
+  <si>
+    <t>I need help with my Free Canvas Account. Where should I go?</t>
+  </si>
+  <si>
+    <t>For help with your Free for Teacher account</t>
+  </si>
+  <si>
+    <t>Canvas Community.</t>
+  </si>
+  <si>
+    <t>Can I use it even though I'm not a teacher?</t>
+  </si>
+  <si>
+    <t>What are the limitations?</t>
+  </si>
+  <si>
+    <t>Yes! Students</t>
+  </si>
+  <si>
+    <t>their parents, and anyone else who wants to use Canvas learning tools can sign up.</t>
+  </si>
+  <si>
+    <t>Yes! Students, their parents, and anyone else who wants to use Canvas learning tools can sign up.</t>
+  </si>
+  <si>
+    <t>The Free Canvas Accounts don't contain all the features available to institutional users of Canvas</t>
+  </si>
+  <si>
+    <t>Check out this Canvas Account Comparison guide to see the difference</t>
+  </si>
+  <si>
+    <t> Free for Teacher Account FAQ</t>
+  </si>
+  <si>
+    <t>Free Canvas Accounts</t>
+  </si>
+  <si>
+    <t>How do I get a join code?</t>
+  </si>
+  <si>
+    <t>If you're using Canvas through your institution, you will most likely already have an account and need to accept a course invitation.</t>
+  </si>
+  <si>
+    <t>If you're not using Canvas through your institution, you can create your own account.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you need to create an account in Canvas but haven't received your join code via email, </t>
+  </si>
+  <si>
+    <t>As a current customer, where should I go for help?</t>
+  </si>
+  <si>
+    <t>Visit your Canvas Dashboard and click on the “Help” button at the bottom of the Global Navigation</t>
+  </si>
+  <si>
+    <t>you’ll be able to access a range of helpful resources and The Training Services Portal</t>
+  </si>
+  <si>
+    <t>You can also reach out to your school's admin for support or visit the resource guides</t>
+  </si>
+  <si>
+    <t>Where do I find the Canvas Help Button?</t>
+  </si>
+  <si>
+    <t>you’ll be able to access a range of helpful resources</t>
+  </si>
+  <si>
+    <t>The Training Services Portal.</t>
+  </si>
+  <si>
+    <t>What do I do if I can’t access my account?</t>
+  </si>
+  <si>
+    <t>If you can't log in to Canvas, follow this step-by-step guidance</t>
+  </si>
+  <si>
+    <t>f you're trying to log into a Free for Teacher account, visit this guide(opens in a new tab)</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Where can I find free Canvas courses?</t>
+  </si>
+  <si>
+    <t>online courses from experts and institutions worldwide</t>
+  </si>
+  <si>
+    <t>training on Canvas</t>
+  </si>
+  <si>
+    <t>free Canvas training courses</t>
+  </si>
+  <si>
+    <t>Higher education institutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> institution name</t>
+  </si>
+  <si>
+    <t>institution type</t>
+  </si>
+  <si>
+    <t>and any other relevant details</t>
+  </si>
+  <si>
+    <t>K–12 schools and districts</t>
+  </si>
+  <si>
+    <t>Corporations</t>
+  </si>
+  <si>
+    <t>How do I check on my invoice or purchase order status?</t>
+  </si>
+  <si>
+    <t>Reach out to AR@instructure.com for billing, invoice, or purchase order questions.</t>
+  </si>
+  <si>
+    <t>billing</t>
+  </si>
+  <si>
+    <t>purchase order questions.</t>
+  </si>
+  <si>
+    <t>Where do I go to search for jobs at Instructure?</t>
+  </si>
+  <si>
+    <t>Visit our Careers page and search our global job listings.</t>
+  </si>
+  <si>
+    <t>Where do I go to make a partnership inquiry?</t>
+  </si>
+  <si>
+    <t>Check out our partners page or send an email to partners@instructure.com</t>
+  </si>
+  <si>
+    <t>page and search</t>
+  </si>
+  <si>
+    <t>global job listings.</t>
+  </si>
+  <si>
+    <t>Check out our partners page</t>
+  </si>
+  <si>
+    <t>send an email to partners@instructure.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +430,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF061C30"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -221,9 +459,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE656FA-CE9D-488C-841A-422425539616}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -759,7 +1004,350 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DFDF63-1B56-41AF-8B66-3B5E667C4AF6}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="51.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.453125" customWidth="1"/>
+    <col min="3" max="3" width="43.54296875" customWidth="1"/>
+    <col min="4" max="4" width="41.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="https://community.canvaslms.com/t5/Student-Guide/How-do-I-log-in-to-Canvas-as-a-student/ta-p/505" xr:uid="{E127AB06-4AFF-429E-8FFA-480276631059}"/>
+    <hyperlink ref="C22" r:id="rId2" tooltip="Our Partners | Partners" display="https://www.instructure.com/partners" xr:uid="{A6C05A09-EBC6-426D-BB48-BE1A711FF6E3}"/>
+    <hyperlink ref="D22" r:id="rId3" display="mailto:partners@instructure.com" xr:uid="{4325AE5F-D655-4A13-9469-15DCCE6D9D23}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008998DEC45F4C4F43A516F1F5C9F5AB4A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="842df66e18b23b20c0b60d955ef13eb1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f46db58a-ea63-4157-889e-1fd4a1b54128" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f72697a2dfc9e7042fd22b2c4d9b1549" ns3:_="">
     <xsd:import namespace="f46db58a-ea63-4157-889e-1fd4a1b54128"/>
@@ -941,15 +1529,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -959,6 +1538,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A38D72A8-13E2-4FB8-AD47-99CFC2D6C6A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29CBD7DA-68AA-45D1-B521-6053FC327F28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -972,14 +1559,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A38D72A8-13E2-4FB8-AD47-99CFC2D6C6A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/src/main/files/ChatTest.xlsx
+++ b/src/main/files/ChatTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SalimAlRawas\IdeaProjects\untitled3\src\main\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B6C444-6CDF-4140-8B77-47A00DF5753A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD958C8-0406-40E9-9F4C-338253FED90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EB2A8A2B-655F-4667-A06D-52489B164BDA}"/>
+    <workbookView xWindow="52710" yWindow="1710" windowWidth="13920" windowHeight="11145" xr2:uid="{EB2A8A2B-655F-4667-A06D-52489B164BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Bau" sheetId="1" r:id="rId1"/>
@@ -171,9 +171,6 @@
     <t>What are the scholarships available in BAU?</t>
   </si>
   <si>
-    <t>t is not specified whether you can receive a decision on financial aid before applying for admissions</t>
-  </si>
-  <si>
     <t>Can I take more than 18 credits in a semester if I’m graduating?</t>
   </si>
   <si>
@@ -412,6 +409,9 @@
   </si>
   <si>
     <t>send an email to partners@instructure.com</t>
+  </si>
+  <si>
+    <t>it is not specified whether you can receive a decision on financial aid before applying for admissions</t>
   </si>
 </sst>
 </file>
@@ -805,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE656FA-CE9D-488C-841A-422425539616}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -856,7 +856,7 @@
         <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -931,7 +931,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
@@ -962,7 +962,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>27</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>28</v>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DFDF63-1B56-41AF-8B66-3B5E667C4AF6}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1034,116 +1034,116 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>73</v>
+      <c r="A8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.35">
@@ -1151,111 +1151,111 @@
         <v>79</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>95</v>
+      <c r="C13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1263,76 +1263,76 @@
         <v>111</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>108</v>
+      <c r="B19" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>124</v>
+        <v>48</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://community.canvaslms.com/t5/Student-Guide/How-do-I-log-in-to-Canvas-as-a-student/ta-p/505" xr:uid="{E127AB06-4AFF-429E-8FFA-480276631059}"/>
-    <hyperlink ref="C22" r:id="rId2" tooltip="Our Partners | Partners" display="https://www.instructure.com/partners" xr:uid="{A6C05A09-EBC6-426D-BB48-BE1A711FF6E3}"/>
-    <hyperlink ref="D22" r:id="rId3" display="mailto:partners@instructure.com" xr:uid="{4325AE5F-D655-4A13-9469-15DCCE6D9D23}"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://community.canvaslms.com/t5/Student-Guide/How-do-I-log-in-to-Canvas-as-a-student/ta-p/505" xr:uid="{E127AB06-4AFF-429E-8FFA-480276631059}"/>
+    <hyperlink ref="C21" r:id="rId2" tooltip="Our Partners | Partners" display="https://www.instructure.com/partners" xr:uid="{A6C05A09-EBC6-426D-BB48-BE1A711FF6E3}"/>
+    <hyperlink ref="D21" r:id="rId3" display="mailto:partners@instructure.com" xr:uid="{4325AE5F-D655-4A13-9469-15DCCE6D9D23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1348,6 +1348,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f46db58a-ea63-4157-889e-1fd4a1b54128" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008998DEC45F4C4F43A516F1F5C9F5AB4A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="842df66e18b23b20c0b60d955ef13eb1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f46db58a-ea63-4157-889e-1fd4a1b54128" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f72697a2dfc9e7042fd22b2c4d9b1549" ns3:_="">
     <xsd:import namespace="f46db58a-ea63-4157-889e-1fd4a1b54128"/>
@@ -1529,14 +1537,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f46db58a-ea63-4157-889e-1fd4a1b54128" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A38D72A8-13E2-4FB8-AD47-99CFC2D6C6A0}">
   <ds:schemaRefs>
@@ -1546,6 +1546,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45414480-7440-44F1-AF3B-3A0CE7847661}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="f46db58a-ea63-4157-889e-1fd4a1b54128"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29CBD7DA-68AA-45D1-B521-6053FC327F28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1561,20 +1577,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45414480-7440-44F1-AF3B-3A0CE7847661}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="f46db58a-ea63-4157-889e-1fd4a1b54128"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/main/files/ChatTest.xlsx
+++ b/src/main/files/ChatTest.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SalimAlRawas\IdeaProjects\untitled3\src\main\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD958C8-0406-40E9-9F4C-338253FED90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A5CCB3-C31E-42C5-B686-45F7CCCC9CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52710" yWindow="1710" windowWidth="13920" windowHeight="11145" xr2:uid="{EB2A8A2B-655F-4667-A06D-52489B164BDA}"/>
+    <workbookView xWindow="52695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{EB2A8A2B-655F-4667-A06D-52489B164BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Bau" sheetId="1" r:id="rId1"/>
     <sheet name="Canvas" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bau!$A$1:$D$13</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="122">
   <si>
     <t>Question</t>
   </si>
@@ -60,15 +63,9 @@
     <t>Submit Your Application</t>
   </si>
   <si>
-    <t>Can I apply for financial aid to know the decision before applying for admissions?</t>
-  </si>
-  <si>
     <t>Are there exchange programs?</t>
   </si>
   <si>
-    <t>This institution does not offer a master's program in cybersecurity</t>
-  </si>
-  <si>
     <t>cybersecurity</t>
   </si>
   <si>
@@ -81,337 +78,334 @@
     <t>What is the body of accreditation for engineering programs?</t>
   </si>
   <si>
-    <t>This accreditation applies to the Communication and Electronics Engineering</t>
-  </si>
-  <si>
     <t>Electrical Power and Machines Engineering</t>
   </si>
   <si>
-    <t>Undergraduate Scholarships</t>
-  </si>
-  <si>
-    <t>Graduate Scholarships:</t>
-  </si>
-  <si>
-    <t>Rank-Based Scholarships</t>
-  </si>
-  <si>
-    <t>you can take more than 18 credits</t>
-  </si>
-  <si>
-    <t>if you are graduating.</t>
-  </si>
-  <si>
-    <t>Yes,</t>
-  </si>
-  <si>
     <t>How do I apply as a sophomore?</t>
   </si>
   <si>
-    <t>Research and Gather Information</t>
-  </si>
-  <si>
-    <t>Submit Application</t>
-  </si>
-  <si>
-    <t>Pay Application Fees</t>
-  </si>
-  <si>
     <t>How can I apply to master's in engineering management online?</t>
   </si>
   <si>
-    <t>Complete the Application Form</t>
-  </si>
-  <si>
     <t>Career Counseling</t>
   </si>
   <si>
-    <t>Workshops and Training</t>
-  </si>
-  <si>
-    <t>Career Fairs</t>
-  </si>
-  <si>
     <t>Do you offer master’s in cybersecurity?</t>
   </si>
   <si>
     <t>Who may use the Library?</t>
   </si>
   <si>
-    <t>accessible to students, academic staff, and non-academic staff members.</t>
-  </si>
-  <si>
-    <t>Additionally, the libraries provide access to specialized and multidisciplinary</t>
-  </si>
-  <si>
     <t>They offer a wide range of information resources</t>
   </si>
   <si>
     <t>Keyword3</t>
   </si>
   <si>
-    <t>You can apply for financial aid at Beirut Arab University (BAU)</t>
-  </si>
-  <si>
-    <t>which will then be reviewed by the BAU administration</t>
-  </si>
-  <si>
-    <t>How does BAU  calculate the financial aid percentage? Is it based solely on income or also on assets?</t>
-  </si>
-  <si>
-    <t>BAU calculates the financial aid percentage based on several factors</t>
-  </si>
-  <si>
-    <t>The specific details of how these factors are weighted or calculated</t>
-  </si>
-  <si>
-    <t>contact BAU's Financial Aid Office directly</t>
-  </si>
-  <si>
     <t>What are the scholarships available in BAU?</t>
   </si>
   <si>
     <t>Can I take more than 18 credits in a semester if I’m graduating?</t>
   </si>
   <si>
-    <t>Create an Account:</t>
-  </si>
-  <si>
     <t>How can BAU help me find a job?</t>
   </si>
   <si>
     <t>How do I reset my password?</t>
   </si>
   <si>
-    <t>If you set up your own Canvas account, go to "Login" and click on the "Forgot Password?</t>
-  </si>
-  <si>
-    <t>Enter the login information associated with your Canvas account and click the "Request Password" button.</t>
-  </si>
-  <si>
-    <t>Once you’ve reset your password</t>
-  </si>
-  <si>
     <t>How do I find my school login?</t>
   </si>
   <si>
-    <t>you'll log in either from your institution's web page or by using its direct Canvas url</t>
-  </si>
-  <si>
-    <t>Find step-by-step guidance here(opens in a new tab)</t>
-  </si>
-  <si>
-    <t>ou must have an account to log in to Canvas</t>
-  </si>
-  <si>
     <t>As a parent, how do I get an account and log in?</t>
   </si>
   <si>
-    <t>Observers can link their Canvas account to their student's account so they can see assignment dues dates</t>
-  </si>
-  <si>
-    <t> you'll need the Canvas url associated with the institution where your student is enrolled</t>
-  </si>
-  <si>
-    <t> If you already have an account from your student's institution, log in to Canvas using the credentials given to you</t>
-  </si>
-  <si>
     <t>Where do I access parent resources?</t>
   </si>
   <si>
-    <t>for Canvas, with helpful links, a forum to ask questions, and a blog</t>
-  </si>
-  <si>
-    <t>An educator and community coach has also pulled together</t>
-  </si>
-  <si>
-    <t>best practices for adding and organizing additional students</t>
-  </si>
-  <si>
     <t>How do I get a pairing code?</t>
   </si>
   <si>
-    <t>you'll need to enter a student-specific pairing code</t>
-  </si>
-  <si>
-    <t>Students can generate pairing codes from their User Settings</t>
-  </si>
-  <si>
-    <t>Depending on institution permissions, admins and instructors may also be able to generate pairing codes.</t>
-  </si>
-  <si>
     <t>My pairing code is invalid. What should I do?</t>
   </si>
   <si>
-    <t>If the pairing code has been used by another observer (parent), you'll need a new code.</t>
-  </si>
-  <si>
-    <t>If the pairing code was generated more than seven days ago, you'll need a new code.</t>
-  </si>
-  <si>
-    <t>The pairing code needs to be entered exactly as it displays (they are case sensitive), without spaces.</t>
-  </si>
-  <si>
     <t>What can I do with a Free Account?</t>
   </si>
   <si>
-    <t>As an Instructor, you can create courses, add students</t>
-  </si>
-  <si>
-    <t>As a Student, you can access your coursework</t>
-  </si>
-  <si>
-    <t>Parents can be added as an observer</t>
-  </si>
-  <si>
     <t>I need help with my Free Canvas Account. Where should I go?</t>
   </si>
   <si>
-    <t>For help with your Free for Teacher account</t>
-  </si>
-  <si>
-    <t>Canvas Community.</t>
-  </si>
-  <si>
     <t>Can I use it even though I'm not a teacher?</t>
   </si>
   <si>
     <t>What are the limitations?</t>
   </si>
   <si>
-    <t>Yes! Students</t>
-  </si>
-  <si>
-    <t>their parents, and anyone else who wants to use Canvas learning tools can sign up.</t>
-  </si>
-  <si>
-    <t>Yes! Students, their parents, and anyone else who wants to use Canvas learning tools can sign up.</t>
-  </si>
-  <si>
-    <t>The Free Canvas Accounts don't contain all the features available to institutional users of Canvas</t>
-  </si>
-  <si>
-    <t>Check out this Canvas Account Comparison guide to see the difference</t>
-  </si>
-  <si>
-    <t> Free for Teacher Account FAQ</t>
-  </si>
-  <si>
-    <t>Free Canvas Accounts</t>
-  </si>
-  <si>
     <t>How do I get a join code?</t>
   </si>
   <si>
-    <t>If you're using Canvas through your institution, you will most likely already have an account and need to accept a course invitation.</t>
-  </si>
-  <si>
-    <t>If you're not using Canvas through your institution, you can create your own account.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you need to create an account in Canvas but haven't received your join code via email, </t>
-  </si>
-  <si>
     <t>As a current customer, where should I go for help?</t>
   </si>
   <si>
-    <t>Visit your Canvas Dashboard and click on the “Help” button at the bottom of the Global Navigation</t>
-  </si>
-  <si>
-    <t>you’ll be able to access a range of helpful resources and The Training Services Portal</t>
-  </si>
-  <si>
-    <t>You can also reach out to your school's admin for support or visit the resource guides</t>
-  </si>
-  <si>
     <t>Where do I find the Canvas Help Button?</t>
   </si>
   <si>
-    <t>you’ll be able to access a range of helpful resources</t>
-  </si>
-  <si>
-    <t>The Training Services Portal.</t>
-  </si>
-  <si>
     <t>What do I do if I can’t access my account?</t>
   </si>
   <si>
-    <t>If you can't log in to Canvas, follow this step-by-step guidance</t>
-  </si>
-  <si>
-    <t>f you're trying to log into a Free for Teacher account, visit this guide(opens in a new tab)</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>Where can I find free Canvas courses?</t>
   </si>
   <si>
-    <t>online courses from experts and institutions worldwide</t>
-  </si>
-  <si>
-    <t>training on Canvas</t>
-  </si>
-  <si>
-    <t>free Canvas training courses</t>
-  </si>
-  <si>
-    <t>Higher education institutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> institution name</t>
-  </si>
-  <si>
-    <t>institution type</t>
-  </si>
-  <si>
-    <t>and any other relevant details</t>
-  </si>
-  <si>
-    <t>K–12 schools and districts</t>
-  </si>
-  <si>
-    <t>Corporations</t>
-  </si>
-  <si>
     <t>How do I check on my invoice or purchase order status?</t>
   </si>
   <si>
-    <t>Reach out to AR@instructure.com for billing, invoice, or purchase order questions.</t>
-  </si>
-  <si>
-    <t>billing</t>
-  </si>
-  <si>
-    <t>purchase order questions.</t>
-  </si>
-  <si>
     <t>Where do I go to search for jobs at Instructure?</t>
   </si>
   <si>
-    <t>Visit our Careers page and search our global job listings.</t>
-  </si>
-  <si>
     <t>Where do I go to make a partnership inquiry?</t>
   </si>
   <si>
-    <t>Check out our partners page or send an email to partners@instructure.com</t>
-  </si>
-  <si>
-    <t>page and search</t>
-  </si>
-  <si>
-    <t>global job listings.</t>
-  </si>
-  <si>
-    <t>Check out our partners page</t>
-  </si>
-  <si>
-    <t>send an email to partners@instructure.com</t>
-  </si>
-  <si>
-    <t>it is not specified whether you can receive a decision on financial aid before applying for admissions</t>
+    <t>How does BAU  calculate the financial aid percentage?</t>
+  </si>
+  <si>
+    <t>recommended to contact the Financial Aid office directly</t>
+  </si>
+  <si>
+    <t>Is it based solely on income or also on assets?</t>
+  </si>
+  <si>
+    <t>based on a combination of factors</t>
+  </si>
+  <si>
+    <t>including both income and assets</t>
+  </si>
+  <si>
+    <t>offers exchange programs</t>
+  </si>
+  <si>
+    <t>recommended to contact the International Relations Office</t>
+  </si>
+  <si>
+    <t>various exchange programs</t>
+  </si>
+  <si>
+    <t>does not offer a master's program in cybersecurity</t>
+  </si>
+  <si>
+    <t>Civil Engineering</t>
+  </si>
+  <si>
+    <t>recommended that you contact the Registrar’s Office</t>
+  </si>
+  <si>
+    <t>take more than 18 credits</t>
+  </si>
+  <si>
+    <t>required to maintain a minimum of 12 and a maximum of 18 credit hours per semester.</t>
+  </si>
+  <si>
+    <t>Submit an Application</t>
+  </si>
+  <si>
+    <t>Visit the Admissions Office</t>
+  </si>
+  <si>
+    <t>Provide Required Documents</t>
+  </si>
+  <si>
+    <t>Visit the BAU Admissions Portal</t>
+  </si>
+  <si>
+    <t>Create an Account or Log In</t>
+  </si>
+  <si>
+    <t>Pay Application Fee</t>
+  </si>
+  <si>
+    <t>Workshops</t>
+  </si>
+  <si>
+    <t>Internship Programs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the library provides access to specialized</t>
+  </si>
+  <si>
+    <t>multidisciplinary databases as well</t>
+  </si>
+  <si>
+    <t>Institution-Specific URL</t>
+  </si>
+  <si>
+    <t>Search for Your School's URL</t>
+  </si>
+  <si>
+    <t>Mobile App Access</t>
+  </si>
+  <si>
+    <t>Free Canvas Account</t>
+  </si>
+  <si>
+    <t>parent resources by visiting</t>
+  </si>
+  <si>
+    <t>Getting Started Resources</t>
+  </si>
+  <si>
+    <t>provides comprehensive guides</t>
+  </si>
+  <si>
+    <t>Open User Settings</t>
+  </si>
+  <si>
+    <t>Pair with Observer</t>
+  </si>
+  <si>
+    <t>Copy Pairing Code</t>
+  </si>
+  <si>
+    <t>Quizzes and Assignments</t>
+  </si>
+  <si>
+    <t>Create and Manage Courses</t>
+  </si>
+  <si>
+    <t>Canvas Community for support</t>
+  </si>
+  <si>
+    <t>managing your free Canvas account.</t>
+  </si>
+  <si>
+    <t>Limited Support</t>
+  </si>
+  <si>
+    <t>Storage Limits</t>
+  </si>
+  <si>
+    <t>Contact Your Instructor</t>
+  </si>
+  <si>
+    <t>Create an Account</t>
+  </si>
+  <si>
+    <t>contact your instructor or institution for assistance</t>
+  </si>
+  <si>
+    <t>Canvas Community</t>
+  </si>
+  <si>
+    <t>Instructure Support</t>
+  </si>
+  <si>
+    <t>Getting Started Guides</t>
+  </si>
+  <si>
+    <t>Open Global Navigation</t>
+  </si>
+  <si>
+    <t>Select Help</t>
+  </si>
+  <si>
+    <t>Help Button provides access to various support options</t>
+  </si>
+  <si>
+    <t>Reset Your Password</t>
+  </si>
+  <si>
+    <t>Check Email for Instructions</t>
+  </si>
+  <si>
+    <t>Contact Support</t>
+  </si>
+  <si>
+    <t>Canvas Free-for-Teacher platform</t>
+  </si>
+  <si>
+    <t>Free-for-Teacher account</t>
+  </si>
+  <si>
+    <t>Canvas Free-for-Teacher</t>
+  </si>
+  <si>
+    <t>What is the Higher education institutions?</t>
+  </si>
+  <si>
+    <t>provide post-secondary education</t>
+  </si>
+  <si>
+    <t>crucial role in preparing students</t>
+  </si>
+  <si>
+    <t>The State of Higher Education 2025</t>
+  </si>
+  <si>
+    <t>What is the K–12 schools and districts</t>
+  </si>
+  <si>
+    <t>provide primary and secondary education to students</t>
+  </si>
+  <si>
+    <t>edtech</t>
+  </si>
+  <si>
+    <t>schools manage their tech ecosystems efficiently</t>
+  </si>
+  <si>
+    <t>Could you please tell me about the Corporation details</t>
+  </si>
+  <si>
+    <t>helps learners thrive in tomorrow’s landscape</t>
+  </si>
+  <si>
+    <t>future where education technology</t>
+  </si>
+  <si>
+    <t>educators</t>
+  </si>
+  <si>
+    <t>visit their official website</t>
+  </si>
+  <si>
+    <t>ou can find current job openings</t>
+  </si>
+  <si>
+    <t>available positions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visit their official website </t>
+  </si>
+  <si>
+    <t>Contact Us</t>
+  </si>
+  <si>
+    <t>This section provides detailed contact</t>
+  </si>
+  <si>
+    <t>Go to the Canvas login page</t>
+  </si>
+  <si>
+    <t>Click "Forgot Password?"</t>
+  </si>
+  <si>
+    <t>Follow the instructions</t>
+  </si>
+  <si>
+    <t>calculates the financial aid percentage based on several criteria</t>
+  </si>
+  <si>
+    <t>including the student's Baccalaureate average</t>
+  </si>
+  <si>
+    <t>contact the Admissions Office</t>
+  </si>
+  <si>
+    <t>Merit-Based Scholarships</t>
+  </si>
+  <si>
+    <t>Financial Aid</t>
+  </si>
+  <si>
+    <t>Special Scholarships</t>
   </si>
 </sst>
 </file>
@@ -805,15 +799,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE656FA-CE9D-488C-841A-422425539616}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.54296875" customWidth="1"/>
+    <col min="1" max="1" width="90" customWidth="1"/>
+    <col min="2" max="3" width="77.36328125" customWidth="1"/>
     <col min="4" max="4" width="60.26953125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -828,7 +821,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -847,159 +840,160 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>32</v>
+      <c r="A13" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D13" xr:uid="{0FE656FA-CE9D-488C-841A-422425539616}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1009,15 +1003,15 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="51.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.453125" customWidth="1"/>
+    <col min="2" max="2" width="48.81640625" customWidth="1"/>
     <col min="3" max="3" width="43.54296875" customWidth="1"/>
-    <col min="4" max="4" width="41.81640625" customWidth="1"/>
+    <col min="4" max="4" width="45.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -1031,99 +1025,99 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="38.5" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>76</v>
@@ -1132,200 +1126,200 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="D10" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D12" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="3" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="4" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="26" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/files/ChatTest.xlsx
+++ b/src/main/files/ChatTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SalimAlRawas\IdeaProjects\untitled3\src\main\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A5CCB3-C31E-42C5-B686-45F7CCCC9CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149A68DF-F106-46DA-8CB8-4322BDDE5B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{EB2A8A2B-655F-4667-A06D-52489B164BDA}"/>
+    <workbookView xWindow="52695" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{EB2A8A2B-655F-4667-A06D-52489B164BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Bau" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="128">
   <si>
     <t>Question</t>
   </si>
@@ -168,18 +168,9 @@
     <t>How does BAU  calculate the financial aid percentage?</t>
   </si>
   <si>
-    <t>recommended to contact the Financial Aid office directly</t>
-  </si>
-  <si>
     <t>Is it based solely on income or also on assets?</t>
   </si>
   <si>
-    <t>based on a combination of factors</t>
-  </si>
-  <si>
-    <t>including both income and assets</t>
-  </si>
-  <si>
     <t>offers exchange programs</t>
   </si>
   <si>
@@ -213,21 +204,6 @@
     <t>Provide Required Documents</t>
   </si>
   <si>
-    <t>Visit the BAU Admissions Portal</t>
-  </si>
-  <si>
-    <t>Create an Account or Log In</t>
-  </si>
-  <si>
-    <t>Pay Application Fee</t>
-  </si>
-  <si>
-    <t>Workshops</t>
-  </si>
-  <si>
-    <t>Internship Programs</t>
-  </si>
-  <si>
     <t xml:space="preserve"> the library provides access to specialized</t>
   </si>
   <si>
@@ -276,12 +252,6 @@
     <t>managing your free Canvas account.</t>
   </si>
   <si>
-    <t>Limited Support</t>
-  </si>
-  <si>
-    <t>Storage Limits</t>
-  </si>
-  <si>
     <t>Contact Your Instructor</t>
   </si>
   <si>
@@ -291,24 +261,6 @@
     <t>contact your instructor or institution for assistance</t>
   </si>
   <si>
-    <t>Canvas Community</t>
-  </si>
-  <si>
-    <t>Instructure Support</t>
-  </si>
-  <si>
-    <t>Getting Started Guides</t>
-  </si>
-  <si>
-    <t>Open Global Navigation</t>
-  </si>
-  <si>
-    <t>Select Help</t>
-  </si>
-  <si>
-    <t>Help Button provides access to various support options</t>
-  </si>
-  <si>
     <t>Reset Your Password</t>
   </si>
   <si>
@@ -330,15 +282,6 @@
     <t>What is the Higher education institutions?</t>
   </si>
   <si>
-    <t>provide post-secondary education</t>
-  </si>
-  <si>
-    <t>crucial role in preparing students</t>
-  </si>
-  <si>
-    <t>The State of Higher Education 2025</t>
-  </si>
-  <si>
     <t>What is the K–12 schools and districts</t>
   </si>
   <si>
@@ -363,15 +306,6 @@
     <t>educators</t>
   </si>
   <si>
-    <t>visit their official website</t>
-  </si>
-  <si>
-    <t>ou can find current job openings</t>
-  </si>
-  <si>
-    <t>available positions</t>
-  </si>
-  <si>
     <t xml:space="preserve">visit their official website </t>
   </si>
   <si>
@@ -381,24 +315,6 @@
     <t>This section provides detailed contact</t>
   </si>
   <si>
-    <t>Go to the Canvas login page</t>
-  </si>
-  <si>
-    <t>Click "Forgot Password?"</t>
-  </si>
-  <si>
-    <t>Follow the instructions</t>
-  </si>
-  <si>
-    <t>calculates the financial aid percentage based on several criteria</t>
-  </si>
-  <si>
-    <t>including the student's Baccalaureate average</t>
-  </si>
-  <si>
-    <t>contact the Admissions Office</t>
-  </si>
-  <si>
     <t>Merit-Based Scholarships</t>
   </si>
   <si>
@@ -406,6 +322,108 @@
   </si>
   <si>
     <t>Special Scholarships</t>
+  </si>
+  <si>
+    <t>Baccalaureate Average:</t>
+  </si>
+  <si>
+    <t>SGPA:</t>
+  </si>
+  <si>
+    <t>can receive higher scholarships</t>
+  </si>
+  <si>
+    <t>navigate to the admissions section</t>
+  </si>
+  <si>
+    <t>Complete the Online Application</t>
+  </si>
+  <si>
+    <t>Review Proces</t>
+  </si>
+  <si>
+    <t>Job placement assistance</t>
+  </si>
+  <si>
+    <t>Review Process</t>
+  </si>
+  <si>
+    <t>Semester Grade Point Average</t>
+  </si>
+  <si>
+    <t>Baccalaureate average</t>
+  </si>
+  <si>
+    <t>The scholarship percentages</t>
+  </si>
+  <si>
+    <t>Generate a New Pairing Code</t>
+  </si>
+  <si>
+    <t>Share this code with the observer</t>
+  </si>
+  <si>
+    <t>Check Expiry and Case Sensitivity</t>
+  </si>
+  <si>
+    <t>Course Creation and Management</t>
+  </si>
+  <si>
+    <t>Integration with Institutional Systems</t>
+  </si>
+  <si>
+    <t>User Roles and Permissions</t>
+  </si>
+  <si>
+    <t>Contact Your Instructor or Institution</t>
+  </si>
+  <si>
+    <t>Confirm that</t>
+  </si>
+  <si>
+    <t>Canvas Mobile App</t>
+  </si>
+  <si>
+    <t>Global Navigation:</t>
+  </si>
+  <si>
+    <t>Institution-Specific Support</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> into the world of work and are uniquely</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> support both learners and instructors</t>
+  </si>
+  <si>
+    <t>These institutions play a critical role</t>
+  </si>
+  <si>
+    <t>Global Reach</t>
+  </si>
+  <si>
+    <t>Vision</t>
+  </si>
+  <si>
+    <t>Scholarships</t>
+  </si>
+  <si>
+    <t>invoice</t>
+  </si>
+  <si>
+    <t>purchase order status</t>
+  </si>
+  <si>
+    <t>financial transactions</t>
+  </si>
+  <si>
+    <t>Navigate to the Login Page</t>
+  </si>
+  <si>
+    <t>Enter Your Email Address</t>
+  </si>
+  <si>
+    <t>Follow the Instructions:</t>
   </si>
 </sst>
 </file>
@@ -799,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE656FA-CE9D-488C-841A-422425539616}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -843,13 +861,13 @@
         <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -857,13 +875,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -871,7 +889,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -891,7 +909,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -899,13 +917,13 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -913,13 +931,13 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -927,13 +945,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -941,13 +959,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -958,10 +976,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -969,10 +987,10 @@
         <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>18</v>
@@ -980,16 +998,16 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1002,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DFDF63-1B56-41AF-8B66-3B5E667C4AF6}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1033,13 +1051,13 @@
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1047,13 +1065,13 @@
         <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1061,13 +1079,13 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -1075,13 +1093,13 @@
         <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -1089,13 +1107,13 @@
         <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -1103,13 +1121,13 @@
         <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1117,13 +1135,13 @@
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -1131,13 +1149,13 @@
         <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1145,13 +1163,13 @@
         <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1159,13 +1177,13 @@
         <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1173,13 +1191,13 @@
         <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -1187,13 +1205,13 @@
         <v>35</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -1201,13 +1219,13 @@
         <v>36</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1215,55 +1233,55 @@
         <v>37</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1271,13 +1289,13 @@
         <v>38</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -1285,13 +1303,13 @@
         <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -1299,13 +1317,13 @@
         <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1313,13 +1331,13 @@
         <v>23</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/files/ChatTest.xlsx
+++ b/src/main/files/ChatTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SalimAlRawas\IdeaProjects\untitled3\src\main\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149A68DF-F106-46DA-8CB8-4322BDDE5B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D44A1A-CE1D-490F-BE2C-5F015FBC0029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52695" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{EB2A8A2B-655F-4667-A06D-52489B164BDA}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EB2A8A2B-655F-4667-A06D-52489B164BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Bau" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="124">
   <si>
     <t>Question</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Who may use the Library?</t>
   </si>
   <si>
-    <t>They offer a wide range of information resources</t>
-  </si>
-  <si>
     <t>Keyword3</t>
   </si>
   <si>
@@ -195,21 +192,6 @@
     <t>required to maintain a minimum of 12 and a maximum of 18 credit hours per semester.</t>
   </si>
   <si>
-    <t>Submit an Application</t>
-  </si>
-  <si>
-    <t>Visit the Admissions Office</t>
-  </si>
-  <si>
-    <t>Provide Required Documents</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the library provides access to specialized</t>
-  </si>
-  <si>
-    <t>multidisciplinary databases as well</t>
-  </si>
-  <si>
     <t>Institution-Specific URL</t>
   </si>
   <si>
@@ -315,24 +297,6 @@
     <t>This section provides detailed contact</t>
   </si>
   <si>
-    <t>Merit-Based Scholarships</t>
-  </si>
-  <si>
-    <t>Financial Aid</t>
-  </si>
-  <si>
-    <t>Special Scholarships</t>
-  </si>
-  <si>
-    <t>Baccalaureate Average:</t>
-  </si>
-  <si>
-    <t>SGPA:</t>
-  </si>
-  <si>
-    <t>can receive higher scholarships</t>
-  </si>
-  <si>
     <t>navigate to the admissions section</t>
   </si>
   <si>
@@ -424,13 +388,37 @@
   </si>
   <si>
     <t>Follow the Instructions:</t>
+  </si>
+  <si>
+    <t>Baccalaureate Average</t>
+  </si>
+  <si>
+    <t>Graduate Scholarships</t>
+  </si>
+  <si>
+    <t>SGPA</t>
+  </si>
+  <si>
+    <t>library usage</t>
+  </si>
+  <si>
+    <t>interlibrary loans</t>
+  </si>
+  <si>
+    <t>contant the Library directly</t>
+  </si>
+  <si>
+    <t>Required Documentation</t>
+  </si>
+  <si>
+    <t>Online Application</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,6 +436,13 @@
       <sz val="10"/>
       <color rgb="FF061C30"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -471,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -481,6 +476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE656FA-CE9D-488C-841A-422425539616}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -839,7 +835,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -858,16 +854,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>40</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -875,13 +871,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -889,7 +885,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -909,35 +905,35 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>93</v>
+        <v>19</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -945,13 +941,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -959,27 +955,27 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -987,32 +983,33 @@
         <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D13" xr:uid="{0FE656FA-CE9D-488C-841A-422425539616}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1020,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DFDF63-1B56-41AF-8B66-3B5E667C4AF6}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1043,301 +1040,301 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/files/ChatTest.xlsx
+++ b/src/main/files/ChatTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SalimAlRawas\IdeaProjects\untitled3\src\main\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D44A1A-CE1D-490F-BE2C-5F015FBC0029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66EA6C8-6E89-4241-B478-9FB9B00EE897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EB2A8A2B-655F-4667-A06D-52489B164BDA}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EB2A8A2B-655F-4667-A06D-52489B164BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Bau" sheetId="1" r:id="rId1"/>
@@ -813,7 +813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE656FA-CE9D-488C-841A-422425539616}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
@@ -1017,7 +1017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DFDF63-1B56-41AF-8B66-3B5E667C4AF6}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -1357,14 +1357,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f46db58a-ea63-4157-889e-1fd4a1b54128" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008998DEC45F4C4F43A516F1F5C9F5AB4A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="842df66e18b23b20c0b60d955ef13eb1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f46db58a-ea63-4157-889e-1fd4a1b54128" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f72697a2dfc9e7042fd22b2c4d9b1549" ns3:_="">
     <xsd:import namespace="f46db58a-ea63-4157-889e-1fd4a1b54128"/>
@@ -1546,6 +1538,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f46db58a-ea63-4157-889e-1fd4a1b54128" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A38D72A8-13E2-4FB8-AD47-99CFC2D6C6A0}">
   <ds:schemaRefs>
@@ -1555,22 +1555,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45414480-7440-44F1-AF3B-3A0CE7847661}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="f46db58a-ea63-4157-889e-1fd4a1b54128"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29CBD7DA-68AA-45D1-B521-6053FC327F28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1586,4 +1570,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45414480-7440-44F1-AF3B-3A0CE7847661}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="f46db58a-ea63-4157-889e-1fd4a1b54128"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/main/files/ChatTest.xlsx
+++ b/src/main/files/ChatTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SalimAlRawas\IdeaProjects\untitled3\src\main\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66EA6C8-6E89-4241-B478-9FB9B00EE897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279ECC5B-625A-4925-8313-AEE9AC311BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EB2A8A2B-655F-4667-A06D-52489B164BDA}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Canvas" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bau!$A$1:$D$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bau!$A$1:$D$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="123">
   <si>
     <t>Question</t>
   </si>
@@ -165,9 +165,6 @@
     <t>How does BAU  calculate the financial aid percentage?</t>
   </si>
   <si>
-    <t>Is it based solely on income or also on assets?</t>
-  </si>
-  <si>
     <t>offers exchange programs</t>
   </si>
   <si>
@@ -183,21 +180,6 @@
     <t>Civil Engineering</t>
   </si>
   <si>
-    <t>recommended that you contact the Registrar’s Office</t>
-  </si>
-  <si>
-    <t>take more than 18 credits</t>
-  </si>
-  <si>
-    <t>required to maintain a minimum of 12 and a maximum of 18 credit hours per semester.</t>
-  </si>
-  <si>
-    <t>Institution-Specific URL</t>
-  </si>
-  <si>
-    <t>Search for Your School's URL</t>
-  </si>
-  <si>
     <t>Mobile App Access</t>
   </si>
   <si>
@@ -213,15 +195,6 @@
     <t>provides comprehensive guides</t>
   </si>
   <si>
-    <t>Open User Settings</t>
-  </si>
-  <si>
-    <t>Pair with Observer</t>
-  </si>
-  <si>
-    <t>Copy Pairing Code</t>
-  </si>
-  <si>
     <t>Quizzes and Assignments</t>
   </si>
   <si>
@@ -243,15 +216,6 @@
     <t>contact your instructor or institution for assistance</t>
   </si>
   <si>
-    <t>Reset Your Password</t>
-  </si>
-  <si>
-    <t>Check Email for Instructions</t>
-  </si>
-  <si>
-    <t>Contact Support</t>
-  </si>
-  <si>
     <t>Canvas Free-for-Teacher platform</t>
   </si>
   <si>
@@ -297,30 +261,12 @@
     <t>This section provides detailed contact</t>
   </si>
   <si>
-    <t>navigate to the admissions section</t>
-  </si>
-  <si>
-    <t>Complete the Online Application</t>
-  </si>
-  <si>
-    <t>Review Proces</t>
-  </si>
-  <si>
     <t>Job placement assistance</t>
   </si>
   <si>
     <t>Review Process</t>
   </si>
   <si>
-    <t>Semester Grade Point Average</t>
-  </si>
-  <si>
-    <t>Baccalaureate average</t>
-  </si>
-  <si>
-    <t>The scholarship percentages</t>
-  </si>
-  <si>
     <t>Generate a New Pairing Code</t>
   </si>
   <si>
@@ -330,21 +276,6 @@
     <t>Check Expiry and Case Sensitivity</t>
   </si>
   <si>
-    <t>Course Creation and Management</t>
-  </si>
-  <si>
-    <t>Integration with Institutional Systems</t>
-  </si>
-  <si>
-    <t>User Roles and Permissions</t>
-  </si>
-  <si>
-    <t>Contact Your Instructor or Institution</t>
-  </si>
-  <si>
-    <t>Confirm that</t>
-  </si>
-  <si>
     <t>Canvas Mobile App</t>
   </si>
   <si>
@@ -354,15 +285,6 @@
     <t>Institution-Specific Support</t>
   </si>
   <si>
-    <t xml:space="preserve"> into the world of work and are uniquely</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> support both learners and instructors</t>
-  </si>
-  <si>
-    <t>These institutions play a critical role</t>
-  </si>
-  <si>
     <t>Global Reach</t>
   </si>
   <si>
@@ -372,15 +294,6 @@
     <t>Scholarships</t>
   </si>
   <si>
-    <t>invoice</t>
-  </si>
-  <si>
-    <t>purchase order status</t>
-  </si>
-  <si>
-    <t>financial transactions</t>
-  </si>
-  <si>
     <t>Navigate to the Login Page</t>
   </si>
   <si>
@@ -399,19 +312,103 @@
     <t>SGPA</t>
   </si>
   <si>
-    <t>library usage</t>
-  </si>
-  <si>
-    <t>interlibrary loans</t>
-  </si>
-  <si>
-    <t>contant the Library directly</t>
-  </si>
-  <si>
-    <t>Required Documentation</t>
-  </si>
-  <si>
-    <t>Online Application</t>
+    <t>Academic Advisor</t>
+  </si>
+  <si>
+    <t>Credit Hours</t>
+  </si>
+  <si>
+    <t>maximum of 18 credit hours</t>
+  </si>
+  <si>
+    <t>Sophomore</t>
+  </si>
+  <si>
+    <t>Admissions Office</t>
+  </si>
+  <si>
+    <t>Required Document</t>
+  </si>
+  <si>
+    <t>Engineering Management</t>
+  </si>
+  <si>
+    <t>i Connect</t>
+  </si>
+  <si>
+    <t>digital collections</t>
+  </si>
+  <si>
+    <t>interlibrary loan</t>
+  </si>
+  <si>
+    <t>e-booking service</t>
+  </si>
+  <si>
+    <t>Canvas URL</t>
+  </si>
+  <si>
+    <t>authentication system</t>
+  </si>
+  <si>
+    <t>institution's website</t>
+  </si>
+  <si>
+    <t>Canvas Account</t>
+  </si>
+  <si>
+    <t>I'm a Parent</t>
+  </si>
+  <si>
+    <t>Start Learning</t>
+  </si>
+  <si>
+    <t>Free-for-Teacher</t>
+  </si>
+  <si>
+    <t>Canvas LMS</t>
+  </si>
+  <si>
+    <t>mobile app</t>
+  </si>
+  <si>
+    <t>Course Analytics</t>
+  </si>
+  <si>
+    <t>User Management</t>
+  </si>
+  <si>
+    <t>Free-for-Teacher Account FAQ</t>
+  </si>
+  <si>
+    <t>Canvas Support</t>
+  </si>
+  <si>
+    <t>Canvas Community</t>
+  </si>
+  <si>
+    <t>Forgot Password</t>
+  </si>
+  <si>
+    <t>Institution's Help Desk</t>
+  </si>
+  <si>
+    <t>Flexible Learning</t>
+  </si>
+  <si>
+    <t>Lifelong Education</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence Integration</t>
+  </si>
+  <si>
+    <t>job openings</t>
+  </si>
+  <si>
+    <t>company culture</t>
+  </si>
+  <si>
+    <t>application procedures</t>
   </si>
 </sst>
 </file>
@@ -811,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE656FA-CE9D-488C-841A-422425539616}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -857,13 +854,13 @@
         <v>40</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -871,13 +868,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -885,7 +882,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -905,7 +902,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -913,13 +910,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -927,13 +924,13 @@
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -941,13 +938,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -955,13 +952,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -972,10 +969,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -983,31 +980,17 @@
         <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D13" xr:uid="{0FE656FA-CE9D-488C-841A-422425539616}"/>
+  <autoFilter ref="A1:D12" xr:uid="{0FE656FA-CE9D-488C-841A-422425539616}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1018,7 +1001,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1048,13 +1031,13 @@
         <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1062,286 +1045,286 @@
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>61</v>
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>53</v>
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>100</v>
+        <v>78</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>71</v>
+        <v>117</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>79</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>107</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>109</v>
+        <v>121</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="2" t="s">
         <v>84</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://community.canvaslms.com/t5/Student-Guide/How-do-I-log-in-to-Canvas-as-a-student/ta-p/505" xr:uid="{E127AB06-4AFF-429E-8FFA-480276631059}"/>
-    <hyperlink ref="C21" r:id="rId2" tooltip="Our Partners | Partners" display="https://www.instructure.com/partners" xr:uid="{A6C05A09-EBC6-426D-BB48-BE1A711FF6E3}"/>
-    <hyperlink ref="D21" r:id="rId3" display="mailto:partners@instructure.com" xr:uid="{4325AE5F-D655-4A13-9469-15DCCE6D9D23}"/>
+    <hyperlink ref="C20" r:id="rId2" tooltip="Our Partners | Partners" display="https://www.instructure.com/partners" xr:uid="{A6C05A09-EBC6-426D-BB48-BE1A711FF6E3}"/>
+    <hyperlink ref="D20" r:id="rId3" display="mailto:partners@instructure.com" xr:uid="{4325AE5F-D655-4A13-9469-15DCCE6D9D23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1357,6 +1340,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f46db58a-ea63-4157-889e-1fd4a1b54128" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008998DEC45F4C4F43A516F1F5C9F5AB4A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="842df66e18b23b20c0b60d955ef13eb1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f46db58a-ea63-4157-889e-1fd4a1b54128" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f72697a2dfc9e7042fd22b2c4d9b1549" ns3:_="">
     <xsd:import namespace="f46db58a-ea63-4157-889e-1fd4a1b54128"/>
@@ -1538,14 +1529,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f46db58a-ea63-4157-889e-1fd4a1b54128" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A38D72A8-13E2-4FB8-AD47-99CFC2D6C6A0}">
   <ds:schemaRefs>
@@ -1555,6 +1538,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45414480-7440-44F1-AF3B-3A0CE7847661}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="f46db58a-ea63-4157-889e-1fd4a1b54128"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29CBD7DA-68AA-45D1-B521-6053FC327F28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1570,20 +1569,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45414480-7440-44F1-AF3B-3A0CE7847661}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="f46db58a-ea63-4157-889e-1fd4a1b54128"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/main/files/ChatTest.xlsx
+++ b/src/main/files/ChatTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SalimAlRawas\IdeaProjects\untitled3\src\main\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279ECC5B-625A-4925-8313-AEE9AC311BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2490E2-EA33-4155-9A00-D5411ADA43DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EB2A8A2B-655F-4667-A06D-52489B164BDA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{EB2A8A2B-655F-4667-A06D-52489B164BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Bau" sheetId="1" r:id="rId1"/>
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C10" activeCellId="1" sqref="C2 C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1340,14 +1340,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f46db58a-ea63-4157-889e-1fd4a1b54128" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008998DEC45F4C4F43A516F1F5C9F5AB4A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="842df66e18b23b20c0b60d955ef13eb1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f46db58a-ea63-4157-889e-1fd4a1b54128" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f72697a2dfc9e7042fd22b2c4d9b1549" ns3:_="">
     <xsd:import namespace="f46db58a-ea63-4157-889e-1fd4a1b54128"/>
@@ -1529,6 +1521,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f46db58a-ea63-4157-889e-1fd4a1b54128" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A38D72A8-13E2-4FB8-AD47-99CFC2D6C6A0}">
   <ds:schemaRefs>
@@ -1538,22 +1538,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45414480-7440-44F1-AF3B-3A0CE7847661}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="f46db58a-ea63-4157-889e-1fd4a1b54128"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29CBD7DA-68AA-45D1-B521-6053FC327F28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1569,4 +1553,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45414480-7440-44F1-AF3B-3A0CE7847661}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="f46db58a-ea63-4157-889e-1fd4a1b54128"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/main/files/ChatTest.xlsx
+++ b/src/main/files/ChatTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SalimAlRawas\IdeaProjects\untitled3\src\main\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2490E2-EA33-4155-9A00-D5411ADA43DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E67A73-C0D8-4434-BB05-06387E82318C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{EB2A8A2B-655F-4667-A06D-52489B164BDA}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EB2A8A2B-655F-4667-A06D-52489B164BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Bau" sheetId="1" r:id="rId1"/>
@@ -285,24 +285,9 @@
     <t>Institution-Specific Support</t>
   </si>
   <si>
-    <t>Global Reach</t>
-  </si>
-  <si>
-    <t>Vision</t>
-  </si>
-  <si>
     <t>Scholarships</t>
   </si>
   <si>
-    <t>Navigate to the Login Page</t>
-  </si>
-  <si>
-    <t>Enter Your Email Address</t>
-  </si>
-  <si>
-    <t>Follow the Instructions:</t>
-  </si>
-  <si>
     <t>Baccalaureate Average</t>
   </si>
   <si>
@@ -336,33 +321,18 @@
     <t>i Connect</t>
   </si>
   <si>
-    <t>digital collections</t>
-  </si>
-  <si>
     <t>interlibrary loan</t>
   </si>
   <si>
-    <t>e-booking service</t>
-  </si>
-  <si>
     <t>Canvas URL</t>
   </si>
   <si>
     <t>authentication system</t>
   </si>
   <si>
-    <t>institution's website</t>
-  </si>
-  <si>
     <t>Canvas Account</t>
   </si>
   <si>
-    <t>I'm a Parent</t>
-  </si>
-  <si>
-    <t>Start Learning</t>
-  </si>
-  <si>
     <t>Free-for-Teacher</t>
   </si>
   <si>
@@ -372,12 +342,6 @@
     <t>mobile app</t>
   </si>
   <si>
-    <t>Course Analytics</t>
-  </si>
-  <si>
-    <t>User Management</t>
-  </si>
-  <si>
     <t>Free-for-Teacher Account FAQ</t>
   </si>
   <si>
@@ -409,6 +373,42 @@
   </si>
   <si>
     <t>application procedures</t>
+  </si>
+  <si>
+    <t>Canvas</t>
+  </si>
+  <si>
+    <t>instructure</t>
+  </si>
+  <si>
+    <t>Pair with Observer</t>
+  </si>
+  <si>
+    <t>pairing codes</t>
+  </si>
+  <si>
+    <t>Course Creation</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>financial transactions</t>
+  </si>
+  <si>
+    <t>Login Page</t>
+  </si>
+  <si>
+    <t>Enter Your Email</t>
+  </si>
+  <si>
+    <t>new password</t>
+  </si>
+  <si>
+    <t>The libraries</t>
+  </si>
+  <si>
+    <t>library services</t>
   </si>
 </sst>
 </file>
@@ -810,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE656FA-CE9D-488C-841A-422425539616}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -854,13 +854,13 @@
         <v>40</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -910,13 +910,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -924,13 +924,13 @@
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -938,13 +938,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -952,13 +952,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -980,13 +980,13 @@
         <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1000,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DFDF63-1B56-41AF-8B66-3B5E667C4AF6}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" activeCellId="1" sqref="C2 C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1031,13 +1031,13 @@
         <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1045,13 +1045,13 @@
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1059,13 +1059,13 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -1115,13 +1115,13 @@
         <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -1129,13 +1129,13 @@
         <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1157,13 +1157,13 @@
         <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1185,13 +1185,13 @@
         <v>35</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1213,13 +1213,13 @@
         <v>61</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -1255,13 +1255,13 @@
         <v>37</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1269,13 +1269,13 @@
         <v>38</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -1297,13 +1297,13 @@
         <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1340,6 +1340,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f46db58a-ea63-4157-889e-1fd4a1b54128" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008998DEC45F4C4F43A516F1F5C9F5AB4A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="842df66e18b23b20c0b60d955ef13eb1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f46db58a-ea63-4157-889e-1fd4a1b54128" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f72697a2dfc9e7042fd22b2c4d9b1549" ns3:_="">
     <xsd:import namespace="f46db58a-ea63-4157-889e-1fd4a1b54128"/>
@@ -1521,14 +1529,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f46db58a-ea63-4157-889e-1fd4a1b54128" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A38D72A8-13E2-4FB8-AD47-99CFC2D6C6A0}">
   <ds:schemaRefs>
@@ -1538,6 +1538,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45414480-7440-44F1-AF3B-3A0CE7847661}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="f46db58a-ea63-4157-889e-1fd4a1b54128"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29CBD7DA-68AA-45D1-B521-6053FC327F28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1553,20 +1569,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45414480-7440-44F1-AF3B-3A0CE7847661}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="f46db58a-ea63-4157-889e-1fd4a1b54128"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/main/files/ChatTest.xlsx
+++ b/src/main/files/ChatTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SalimAlRawas\IdeaProjects\untitled3\src\main\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E67A73-C0D8-4434-BB05-06387E82318C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D8B5F7-82D4-41AA-8D3A-1839B5449BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EB2A8A2B-655F-4667-A06D-52489B164BDA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{EB2A8A2B-655F-4667-A06D-52489B164BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Bau" sheetId="1" r:id="rId1"/>
@@ -811,7 +811,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1340,14 +1340,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f46db58a-ea63-4157-889e-1fd4a1b54128" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008998DEC45F4C4F43A516F1F5C9F5AB4A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="842df66e18b23b20c0b60d955ef13eb1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f46db58a-ea63-4157-889e-1fd4a1b54128" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f72697a2dfc9e7042fd22b2c4d9b1549" ns3:_="">
     <xsd:import namespace="f46db58a-ea63-4157-889e-1fd4a1b54128"/>
@@ -1529,6 +1521,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f46db58a-ea63-4157-889e-1fd4a1b54128" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A38D72A8-13E2-4FB8-AD47-99CFC2D6C6A0}">
   <ds:schemaRefs>
@@ -1538,22 +1538,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45414480-7440-44F1-AF3B-3A0CE7847661}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="f46db58a-ea63-4157-889e-1fd4a1b54128"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29CBD7DA-68AA-45D1-B521-6053FC327F28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1569,4 +1553,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45414480-7440-44F1-AF3B-3A0CE7847661}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="f46db58a-ea63-4157-889e-1fd4a1b54128"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>